--- a/PVDG.xlsx
+++ b/PVDG.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>Bg (BBL/Mscf)</t>
   </si>
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,10 +411,10 @@
         <v>400</v>
       </c>
       <c r="B2">
-        <v>7.746867796970858</v>
+        <v>7.764885014274649</v>
       </c>
       <c r="C2">
-        <v>0.06969563557698157</v>
+        <v>0.07000349873623612</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -425,12 +425,54 @@
         <v>500</v>
       </c>
       <c r="B3">
-        <v>6.149040731850654</v>
+        <v>6.1607253821163</v>
       </c>
       <c r="C3">
-        <v>0.07070917284019894</v>
+        <v>0.07088297468101119</v>
       </c>
       <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>900</v>
+      </c>
+      <c r="B4">
+        <v>3.318924097591853</v>
+      </c>
+      <c r="C4">
+        <v>0.07433659649167967</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>1250</v>
+      </c>
+      <c r="B5">
+        <v>2.334301487175983</v>
+      </c>
+      <c r="C5">
+        <v>0.07810766883554814</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>1500</v>
+      </c>
+      <c r="B6">
+        <v>1.916840969215296</v>
+      </c>
+      <c r="C6">
+        <v>0.08151118187122558</v>
+      </c>
+      <c r="D6" t="s">
         <v>4</v>
       </c>
     </row>
